--- a/beneficio1_alunos_ativos.xlsx
+++ b/beneficio1_alunos_ativos.xlsx
@@ -4695,7 +4695,7 @@
         <v>86</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4764,7 +4764,7 @@
         <v>43</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4787,7 +4787,7 @@
         <v>204</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4810,7 +4810,7 @@
         <v>257</v>
       </c>
       <c r="G7">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4833,7 +4833,7 @@
         <v>97</v>
       </c>
       <c r="G8">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4902,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4925,7 +4925,7 @@
         <v>71</v>
       </c>
       <c r="G12">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4948,7 +4948,7 @@
         <v>37</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4994,7 +4994,7 @@
         <v>70</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5017,7 +5017,7 @@
         <v>122</v>
       </c>
       <c r="G16">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5040,7 +5040,7 @@
         <v>128</v>
       </c>
       <c r="G17">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5063,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5086,7 +5086,7 @@
         <v>178</v>
       </c>
       <c r="G19">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5132,7 +5132,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5155,7 +5155,7 @@
         <v>127</v>
       </c>
       <c r="G22">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5178,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5201,7 +5201,7 @@
         <v>67</v>
       </c>
       <c r="G24">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5247,7 +5247,7 @@
         <v>191</v>
       </c>
       <c r="G26">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5293,7 +5293,7 @@
         <v>237</v>
       </c>
       <c r="G28">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5316,7 +5316,7 @@
         <v>275</v>
       </c>
       <c r="G29">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5362,7 +5362,7 @@
         <v>177</v>
       </c>
       <c r="G31">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5385,7 +5385,7 @@
         <v>117</v>
       </c>
       <c r="G32">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5408,7 +5408,7 @@
         <v>181</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5431,7 +5431,7 @@
         <v>223</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5477,7 +5477,7 @@
         <v>179</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5523,7 +5523,7 @@
         <v>298</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5546,7 +5546,7 @@
         <v>285</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5592,7 +5592,7 @@
         <v>248</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5615,7 +5615,7 @@
         <v>53</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5638,7 +5638,7 @@
         <v>102</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5661,7 +5661,7 @@
         <v>61</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5681,10 +5681,10 @@
         <v>1424</v>
       </c>
       <c r="F45">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G45">
-        <v>451</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5707,7 +5707,7 @@
         <v>111</v>
       </c>
       <c r="G46">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5750,10 +5750,10 @@
         <v>1424</v>
       </c>
       <c r="F48">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G48">
-        <v>91</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5776,7 +5776,7 @@
         <v>978</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5799,7 +5799,7 @@
         <v>1113</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5822,7 +5822,7 @@
         <v>755</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5845,7 +5845,7 @@
         <v>258</v>
       </c>
       <c r="G52">
-        <v>155</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5865,10 +5865,10 @@
         <v>1422</v>
       </c>
       <c r="F53">
+        <v>281</v>
+      </c>
+      <c r="G53">
         <v>280</v>
-      </c>
-      <c r="G53">
-        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5891,7 +5891,7 @@
         <v>33</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5914,7 +5914,7 @@
         <v>236</v>
       </c>
       <c r="G55">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5937,7 +5937,7 @@
         <v>242</v>
       </c>
       <c r="G56">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5960,7 +5960,7 @@
         <v>136</v>
       </c>
       <c r="G57">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5983,7 +5983,7 @@
         <v>205</v>
       </c>
       <c r="G58">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6006,7 +6006,7 @@
         <v>81</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6075,7 +6075,7 @@
         <v>170</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6098,7 +6098,7 @@
         <v>222</v>
       </c>
       <c r="G63">
-        <v>146</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6121,7 +6121,7 @@
         <v>196</v>
       </c>
       <c r="G64">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6144,7 +6144,7 @@
         <v>6</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6167,7 +6167,7 @@
         <v>123</v>
       </c>
       <c r="G66">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6187,10 +6187,10 @@
         <v>1424</v>
       </c>
       <c r="F67">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G67">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6213,7 +6213,7 @@
         <v>329</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6236,7 +6236,7 @@
         <v>295</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6259,7 +6259,7 @@
         <v>67</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6282,7 +6282,7 @@
         <v>232</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6305,7 +6305,7 @@
         <v>193</v>
       </c>
       <c r="G72">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6328,7 +6328,7 @@
         <v>234</v>
       </c>
       <c r="G73">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6351,7 +6351,7 @@
         <v>25</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6371,10 +6371,10 @@
         <v>1423</v>
       </c>
       <c r="F75">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G75">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6443,7 +6443,7 @@
         <v>54</v>
       </c>
       <c r="G78">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6466,7 +6466,7 @@
         <v>60</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6512,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6535,7 +6535,7 @@
         <v>168</v>
       </c>
       <c r="G82">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6558,7 +6558,7 @@
         <v>142</v>
       </c>
       <c r="G83">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6604,7 +6604,7 @@
         <v>23</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6650,7 +6650,7 @@
         <v>43</v>
       </c>
       <c r="G87">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6673,7 +6673,7 @@
         <v>79</v>
       </c>
       <c r="G88">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6696,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6716,10 +6716,10 @@
         <v>1424</v>
       </c>
       <c r="F90">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G90">
-        <v>169</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6742,7 +6742,7 @@
         <v>108</v>
       </c>
       <c r="G91">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6765,7 +6765,7 @@
         <v>139</v>
       </c>
       <c r="G92">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6788,7 +6788,7 @@
         <v>77</v>
       </c>
       <c r="G93">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6811,7 +6811,7 @@
         <v>31</v>
       </c>
       <c r="G94">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6834,7 +6834,7 @@
         <v>67</v>
       </c>
       <c r="G95">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6854,7 +6854,7 @@
         <v>1422</v>
       </c>
       <c r="F96">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G96">
         <v>82</v>
@@ -6903,7 +6903,7 @@
         <v>30</v>
       </c>
       <c r="G98">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6949,7 +6949,7 @@
         <v>118</v>
       </c>
       <c r="G100">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6969,10 +6969,10 @@
         <v>1424</v>
       </c>
       <c r="F101">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G101">
-        <v>329</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6995,7 +6995,7 @@
         <v>101</v>
       </c>
       <c r="G102">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7018,7 +7018,7 @@
         <v>197</v>
       </c>
       <c r="G103">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7041,7 +7041,7 @@
         <v>383</v>
       </c>
       <c r="G104">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7064,7 +7064,7 @@
         <v>65</v>
       </c>
       <c r="G105">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7087,7 +7087,7 @@
         <v>121</v>
       </c>
       <c r="G106">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7107,10 +7107,10 @@
         <v>1422</v>
       </c>
       <c r="F107">
+        <v>134</v>
+      </c>
+      <c r="G107">
         <v>133</v>
-      </c>
-      <c r="G107">
-        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7133,7 +7133,7 @@
         <v>27</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7153,10 +7153,10 @@
         <v>1423</v>
       </c>
       <c r="F109">
+        <v>189</v>
+      </c>
+      <c r="G109">
         <v>188</v>
-      </c>
-      <c r="G109">
-        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7176,10 +7176,10 @@
         <v>1424</v>
       </c>
       <c r="F110">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G110">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7202,7 +7202,7 @@
         <v>117</v>
       </c>
       <c r="G111">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7225,7 +7225,7 @@
         <v>254</v>
       </c>
       <c r="G112">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7248,7 +7248,7 @@
         <v>55</v>
       </c>
       <c r="G113">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7268,10 +7268,10 @@
         <v>1423</v>
       </c>
       <c r="F114">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G114">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7294,7 +7294,7 @@
         <v>22</v>
       </c>
       <c r="G115">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7337,10 +7337,10 @@
         <v>1423</v>
       </c>
       <c r="F117">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G117">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -7360,10 +7360,10 @@
         <v>1424</v>
       </c>
       <c r="F118">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G118">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -7386,7 +7386,7 @@
         <v>95</v>
       </c>
       <c r="G119">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -7409,7 +7409,7 @@
         <v>135</v>
       </c>
       <c r="G120">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -7432,7 +7432,7 @@
         <v>175</v>
       </c>
       <c r="G121">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7455,7 +7455,7 @@
         <v>49</v>
       </c>
       <c r="G122">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7478,7 +7478,7 @@
         <v>99</v>
       </c>
       <c r="G123">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -7524,7 +7524,7 @@
         <v>383</v>
       </c>
       <c r="G125">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -7570,7 +7570,7 @@
         <v>312</v>
       </c>
       <c r="G127">
-        <v>122</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -7593,7 +7593,7 @@
         <v>265</v>
       </c>
       <c r="G128">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7616,7 +7616,7 @@
         <v>167</v>
       </c>
       <c r="G129">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7639,7 +7639,7 @@
         <v>300</v>
       </c>
       <c r="G130">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7662,7 +7662,7 @@
         <v>253</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7685,7 +7685,7 @@
         <v>174</v>
       </c>
       <c r="G132">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7731,7 +7731,7 @@
         <v>48</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7754,7 +7754,7 @@
         <v>40</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7777,7 +7777,7 @@
         <v>362</v>
       </c>
       <c r="G136">
-        <v>297</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7797,10 +7797,10 @@
         <v>1422</v>
       </c>
       <c r="F137">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G137">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7823,7 +7823,7 @@
         <v>21</v>
       </c>
       <c r="G138">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7846,7 +7846,7 @@
         <v>150</v>
       </c>
       <c r="G139">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -7869,7 +7869,7 @@
         <v>126</v>
       </c>
       <c r="G140">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -7889,10 +7889,10 @@
         <v>1421</v>
       </c>
       <c r="F141">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G141">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7938,7 +7938,7 @@
         <v>54</v>
       </c>
       <c r="G143">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -7958,10 +7958,10 @@
         <v>1424</v>
       </c>
       <c r="F144">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G144">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -7984,7 +7984,7 @@
         <v>325</v>
       </c>
       <c r="G145">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8030,7 +8030,7 @@
         <v>572</v>
       </c>
       <c r="G147">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8050,10 +8050,10 @@
         <v>1424</v>
       </c>
       <c r="F148">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G148">
-        <v>372</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8076,7 +8076,7 @@
         <v>78</v>
       </c>
       <c r="G149">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8168,7 +8168,7 @@
         <v>22</v>
       </c>
       <c r="G153">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8191,7 +8191,7 @@
         <v>233</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8214,7 +8214,7 @@
         <v>462</v>
       </c>
       <c r="G155">
-        <v>181</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8237,7 +8237,7 @@
         <v>265</v>
       </c>
       <c r="G156">
-        <v>207</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8260,7 +8260,7 @@
         <v>488</v>
       </c>
       <c r="G157">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8283,7 +8283,7 @@
         <v>1180</v>
       </c>
       <c r="G158">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -8306,7 +8306,7 @@
         <v>47</v>
       </c>
       <c r="G159">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -8352,7 +8352,7 @@
         <v>196</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -8375,7 +8375,7 @@
         <v>70</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -8395,10 +8395,10 @@
         <v>1424</v>
       </c>
       <c r="F163">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G163">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -8444,7 +8444,7 @@
         <v>198</v>
       </c>
       <c r="G165">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9295,7 +9295,7 @@
         <v>397</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9341,7 +9341,7 @@
         <v>167</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -9387,7 +9387,7 @@
         <v>60</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -9410,7 +9410,7 @@
         <v>80</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -9433,7 +9433,7 @@
         <v>37</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -9453,10 +9453,10 @@
         <v>1424</v>
       </c>
       <c r="F209">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -9479,7 +9479,7 @@
         <v>75</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -9502,7 +9502,7 @@
         <v>39</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -9548,7 +9548,7 @@
         <v>81</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -9571,7 +9571,7 @@
         <v>63</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -9594,7 +9594,7 @@
         <v>18</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -9617,7 +9617,7 @@
         <v>239</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -9663,7 +9663,7 @@
         <v>65</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9686,7 +9686,7 @@
         <v>79</v>
       </c>
       <c r="G219">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -9709,7 +9709,7 @@
         <v>35</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -9824,7 +9824,7 @@
         <v>66</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -9847,7 +9847,7 @@
         <v>44</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -9870,7 +9870,7 @@
         <v>100</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -9962,7 +9962,7 @@
         <v>39</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -10031,7 +10031,7 @@
         <v>68</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10054,7 +10054,7 @@
         <v>57</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10077,7 +10077,7 @@
         <v>46</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10100,7 +10100,7 @@
         <v>136</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10123,7 +10123,7 @@
         <v>224</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10146,7 +10146,7 @@
         <v>74</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10169,7 +10169,7 @@
         <v>72</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10192,7 +10192,7 @@
         <v>37</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10215,7 +10215,7 @@
         <v>53</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10307,7 +10307,7 @@
         <v>90</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10330,7 +10330,7 @@
         <v>94</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -10353,7 +10353,7 @@
         <v>190</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -10376,7 +10376,7 @@
         <v>151</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -10422,7 +10422,7 @@
         <v>114</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -10445,7 +10445,7 @@
         <v>92</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -10468,7 +10468,7 @@
         <v>47</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -10491,7 +10491,7 @@
         <v>174</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -10537,7 +10537,7 @@
         <v>73</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -10560,7 +10560,7 @@
         <v>133</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -10580,10 +10580,10 @@
         <v>1424</v>
       </c>
       <c r="F258">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -10606,7 +10606,7 @@
         <v>69</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -10629,7 +10629,7 @@
         <v>76</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -10652,7 +10652,7 @@
         <v>68</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -10721,7 +10721,7 @@
         <v>215</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -10767,7 +10767,7 @@
         <v>23</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -10813,7 +10813,7 @@
         <v>507</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -10836,7 +10836,7 @@
         <v>136</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10859,7 +10859,7 @@
         <v>223</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10882,7 +10882,7 @@
         <v>547</v>
       </c>
       <c r="G271">
-        <v>19</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -10905,7 +10905,7 @@
         <v>79</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -10928,7 +10928,7 @@
         <v>53</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11043,7 +11043,7 @@
         <v>72</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11066,7 +11066,7 @@
         <v>59</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11112,7 +11112,7 @@
         <v>14</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11135,7 +11135,7 @@
         <v>70</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11158,7 +11158,7 @@
         <v>345</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11526,7 +11526,7 @@
         <v>39</v>
       </c>
       <c r="G299">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -11618,7 +11618,7 @@
         <v>120</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -11641,7 +11641,7 @@
         <v>1313</v>
       </c>
       <c r="G304">
-        <v>705</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -11664,7 +11664,7 @@
         <v>1333</v>
       </c>
       <c r="G305">
-        <v>1322</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -11687,7 +11687,7 @@
         <v>961</v>
       </c>
       <c r="G306">
-        <v>785</v>
+        <v>937</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -11707,10 +11707,10 @@
         <v>1424</v>
       </c>
       <c r="F307">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G307">
-        <v>259</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -11848,7 +11848,7 @@
         <v>100</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -11865,10 +11865,10 @@
         <v>1421</v>
       </c>
       <c r="F314">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G314">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -11888,7 +11888,7 @@
         <v>296</v>
       </c>
       <c r="G315">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -11908,7 +11908,7 @@
         <v>114</v>
       </c>
       <c r="G316">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -11928,7 +11928,7 @@
         <v>160</v>
       </c>
       <c r="G317">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -11971,7 +11971,7 @@
         <v>153</v>
       </c>
       <c r="G319">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -11994,7 +11994,7 @@
         <v>234</v>
       </c>
       <c r="G320">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12014,10 +12014,10 @@
         <v>1423</v>
       </c>
       <c r="F321">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G321">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12037,10 +12037,10 @@
         <v>1424</v>
       </c>
       <c r="F322">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12063,7 +12063,7 @@
         <v>198</v>
       </c>
       <c r="G323">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12155,7 +12155,7 @@
         <v>183</v>
       </c>
       <c r="G327">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12201,7 +12201,7 @@
         <v>51</v>
       </c>
       <c r="G329">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -12270,7 +12270,7 @@
         <v>182</v>
       </c>
       <c r="G332">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -12316,7 +12316,7 @@
         <v>217</v>
       </c>
       <c r="G334">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -12339,7 +12339,7 @@
         <v>186</v>
       </c>
       <c r="G335">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -12362,7 +12362,7 @@
         <v>77</v>
       </c>
       <c r="G336">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -12385,7 +12385,7 @@
         <v>68</v>
       </c>
       <c r="G337">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -12405,10 +12405,10 @@
         <v>1421</v>
       </c>
       <c r="F338">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G338">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -12428,7 +12428,7 @@
         <v>1422</v>
       </c>
       <c r="F339">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G339">
         <v>315</v>
@@ -12454,7 +12454,7 @@
         <v>165</v>
       </c>
       <c r="G340">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -12477,7 +12477,7 @@
         <v>693</v>
       </c>
       <c r="G341">
-        <v>668</v>
+        <v>687</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -12500,7 +12500,7 @@
         <v>140</v>
       </c>
       <c r="G342">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -12523,7 +12523,7 @@
         <v>129</v>
       </c>
       <c r="G343">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -12546,7 +12546,7 @@
         <v>37</v>
       </c>
       <c r="G344">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -12569,7 +12569,7 @@
         <v>123</v>
       </c>
       <c r="G345">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -12615,7 +12615,7 @@
         <v>32</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -12661,7 +12661,7 @@
         <v>21</v>
       </c>
       <c r="G349">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -12684,7 +12684,7 @@
         <v>2</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -12707,7 +12707,7 @@
         <v>106</v>
       </c>
       <c r="G351">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -12730,7 +12730,7 @@
         <v>20</v>
       </c>
       <c r="G352">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -12753,7 +12753,7 @@
         <v>32</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -12796,10 +12796,10 @@
         <v>1422</v>
       </c>
       <c r="F355">
+        <v>358</v>
+      </c>
+      <c r="G355">
         <v>357</v>
-      </c>
-      <c r="G355">
-        <v>356</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -12868,7 +12868,7 @@
         <v>240</v>
       </c>
       <c r="G358">
-        <v>115</v>
+        <v>224</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -12914,7 +12914,7 @@
         <v>193</v>
       </c>
       <c r="G360">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -12937,7 +12937,7 @@
         <v>185</v>
       </c>
       <c r="G361">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -12960,7 +12960,7 @@
         <v>246</v>
       </c>
       <c r="G362">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13006,7 +13006,7 @@
         <v>184</v>
       </c>
       <c r="G364">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13029,7 +13029,7 @@
         <v>194</v>
       </c>
       <c r="G365">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13052,7 +13052,7 @@
         <v>324</v>
       </c>
       <c r="G366">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13075,7 +13075,7 @@
         <v>783</v>
       </c>
       <c r="G367">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13098,7 +13098,7 @@
         <v>926</v>
       </c>
       <c r="G368">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13144,7 +13144,7 @@
         <v>261</v>
       </c>
       <c r="G370">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13164,7 +13164,7 @@
         <v>1423</v>
       </c>
       <c r="F371">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G371">
         <v>210</v>
@@ -13213,7 +13213,7 @@
         <v>258</v>
       </c>
       <c r="G373">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13233,7 +13233,7 @@
         <v>1422</v>
       </c>
       <c r="F374">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G374">
         <v>360</v>
@@ -13259,7 +13259,7 @@
         <v>410</v>
       </c>
       <c r="G375">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13282,7 +13282,7 @@
         <v>218</v>
       </c>
       <c r="G376">
-        <v>97</v>
+        <v>152</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13305,7 +13305,7 @@
         <v>66</v>
       </c>
       <c r="G377">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13397,7 +13397,7 @@
         <v>83</v>
       </c>
       <c r="G381">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -13443,7 +13443,7 @@
         <v>848</v>
       </c>
       <c r="G383">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -13466,7 +13466,7 @@
         <v>931</v>
       </c>
       <c r="G384">
-        <v>457</v>
+        <v>620</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -13489,7 +13489,7 @@
         <v>280</v>
       </c>
       <c r="G385">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -13558,7 +13558,7 @@
         <v>259</v>
       </c>
       <c r="G388">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -13581,7 +13581,7 @@
         <v>99</v>
       </c>
       <c r="G389">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -13627,7 +13627,7 @@
         <v>86</v>
       </c>
       <c r="G391">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -13696,7 +13696,7 @@
         <v>131</v>
       </c>
       <c r="G394">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -13788,7 +13788,7 @@
         <v>345</v>
       </c>
       <c r="G398">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -13834,7 +13834,7 @@
         <v>12</v>
       </c>
       <c r="G400">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -13880,7 +13880,7 @@
         <v>490</v>
       </c>
       <c r="G402">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -13903,7 +13903,7 @@
         <v>316</v>
       </c>
       <c r="G403">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -13926,7 +13926,7 @@
         <v>337</v>
       </c>
       <c r="G404">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -13949,7 +13949,7 @@
         <v>219</v>
       </c>
       <c r="G405">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -13972,7 +13972,7 @@
         <v>548</v>
       </c>
       <c r="G406">
-        <v>365</v>
+        <v>412</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -13995,7 +13995,7 @@
         <v>590</v>
       </c>
       <c r="G407">
-        <v>353</v>
+        <v>458</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14015,10 +14015,10 @@
         <v>1422</v>
       </c>
       <c r="F408">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G408">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14038,10 +14038,10 @@
         <v>1423</v>
       </c>
       <c r="F409">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G409">
-        <v>241</v>
+        <v>335</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14064,7 +14064,7 @@
         <v>248</v>
       </c>
       <c r="G410">
-        <v>163</v>
+        <v>243</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14087,7 +14087,7 @@
         <v>173</v>
       </c>
       <c r="G411">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -14110,7 +14110,7 @@
         <v>67</v>
       </c>
       <c r="G412">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -14156,7 +14156,7 @@
         <v>67</v>
       </c>
       <c r="G414">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14294,7 +14294,7 @@
         <v>97</v>
       </c>
       <c r="G420">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14317,7 +14317,7 @@
         <v>309</v>
       </c>
       <c r="G421">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -14337,10 +14337,10 @@
         <v>1423</v>
       </c>
       <c r="F422">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G422">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -14363,7 +14363,7 @@
         <v>220</v>
       </c>
       <c r="G423">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -14386,7 +14386,7 @@
         <v>210</v>
       </c>
       <c r="G424">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -14409,7 +14409,7 @@
         <v>209</v>
       </c>
       <c r="G425">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -14432,7 +14432,7 @@
         <v>15</v>
       </c>
       <c r="G426">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14455,7 +14455,7 @@
         <v>135</v>
       </c>
       <c r="G427">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -14478,7 +14478,7 @@
         <v>255</v>
       </c>
       <c r="G428">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -14501,7 +14501,7 @@
         <v>60</v>
       </c>
       <c r="G429">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -14524,7 +14524,7 @@
         <v>52</v>
       </c>
       <c r="G430">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -14544,10 +14544,10 @@
         <v>1421</v>
       </c>
       <c r="F431">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G431">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -14570,7 +14570,7 @@
         <v>422</v>
       </c>
       <c r="G432">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -14593,7 +14593,7 @@
         <v>97</v>
       </c>
       <c r="G433">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -14639,7 +14639,7 @@
         <v>267</v>
       </c>
       <c r="G435">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -14662,7 +14662,7 @@
         <v>91</v>
       </c>
       <c r="G436">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -14685,7 +14685,7 @@
         <v>144</v>
       </c>
       <c r="G437">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -14708,7 +14708,7 @@
         <v>103</v>
       </c>
       <c r="G438">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -14731,7 +14731,7 @@
         <v>262</v>
       </c>
       <c r="G439">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -14754,7 +14754,7 @@
         <v>177</v>
       </c>
       <c r="G440">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -14777,7 +14777,7 @@
         <v>406</v>
       </c>
       <c r="G441">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -14800,7 +14800,7 @@
         <v>245</v>
       </c>
       <c r="G442">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -14823,7 +14823,7 @@
         <v>151</v>
       </c>
       <c r="G443">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -14846,7 +14846,7 @@
         <v>190</v>
       </c>
       <c r="G444">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -14869,7 +14869,7 @@
         <v>108</v>
       </c>
       <c r="G445">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -14892,7 +14892,7 @@
         <v>99</v>
       </c>
       <c r="G446">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -14915,7 +14915,7 @@
         <v>102</v>
       </c>
       <c r="G447">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -14938,7 +14938,7 @@
         <v>87</v>
       </c>
       <c r="G448">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -14984,7 +14984,7 @@
         <v>14</v>
       </c>
       <c r="G450">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -15007,7 +15007,7 @@
         <v>19</v>
       </c>
       <c r="G451">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -15030,7 +15030,7 @@
         <v>395</v>
       </c>
       <c r="G452">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -15076,7 +15076,7 @@
         <v>69</v>
       </c>
       <c r="G454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -15099,7 +15099,7 @@
         <v>217</v>
       </c>
       <c r="G455">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -15122,7 +15122,7 @@
         <v>82</v>
       </c>
       <c r="G456">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -15145,7 +15145,7 @@
         <v>475</v>
       </c>
       <c r="G457">
-        <v>400</v>
+        <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -15168,7 +15168,7 @@
         <v>103</v>
       </c>
       <c r="G458">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -15191,7 +15191,7 @@
         <v>97</v>
       </c>
       <c r="G459">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -15211,10 +15211,10 @@
         <v>1424</v>
       </c>
       <c r="F460">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G460">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -15237,7 +15237,7 @@
         <v>144</v>
       </c>
       <c r="G461">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -15260,7 +15260,7 @@
         <v>99</v>
       </c>
       <c r="G462">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -15280,10 +15280,10 @@
         <v>1424</v>
       </c>
       <c r="F463">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G463">
-        <v>414</v>
+        <v>536</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -15306,7 +15306,7 @@
         <v>82</v>
       </c>
       <c r="G464">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -15329,7 +15329,7 @@
         <v>130</v>
       </c>
       <c r="G465">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -15375,7 +15375,7 @@
         <v>140</v>
       </c>
       <c r="G467">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -15395,10 +15395,10 @@
         <v>1424</v>
       </c>
       <c r="F468">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G468">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -15418,10 +15418,10 @@
         <v>1424</v>
       </c>
       <c r="F469">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="G469">
-        <v>80</v>
+        <v>282</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -15444,7 +15444,7 @@
         <v>99</v>
       </c>
       <c r="G470">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -15467,7 +15467,7 @@
         <v>342</v>
       </c>
       <c r="G471">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -15490,7 +15490,7 @@
         <v>442</v>
       </c>
       <c r="G472">
-        <v>297</v>
+        <v>365</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -15513,7 +15513,7 @@
         <v>878</v>
       </c>
       <c r="G473">
-        <v>718</v>
+        <v>787</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -15536,7 +15536,7 @@
         <v>152</v>
       </c>
       <c r="G474">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -15697,7 +15697,7 @@
         <v>1313</v>
       </c>
       <c r="G481">
-        <v>705</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -15720,7 +15720,7 @@
         <v>1333</v>
       </c>
       <c r="G482">
-        <v>1322</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -15743,7 +15743,7 @@
         <v>961</v>
       </c>
       <c r="G483">
-        <v>785</v>
+        <v>937</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -15763,10 +15763,10 @@
         <v>1424</v>
       </c>
       <c r="F484">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G484">
-        <v>259</v>
+        <v>397</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -15789,7 +15789,7 @@
         <v>277</v>
       </c>
       <c r="G485">
-        <v>10</v>
+        <v>270</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -15812,7 +15812,7 @@
         <v>314</v>
       </c>
       <c r="G486">
-        <v>90</v>
+        <v>256</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -15835,7 +15835,7 @@
         <v>438</v>
       </c>
       <c r="G487">
-        <v>265</v>
+        <v>428</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -15904,7 +15904,7 @@
         <v>44</v>
       </c>
       <c r="G490">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -15973,7 +15973,7 @@
         <v>36</v>
       </c>
       <c r="G493">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -15996,7 +15996,7 @@
         <v>11</v>
       </c>
       <c r="G494">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -16042,7 +16042,7 @@
         <v>82</v>
       </c>
       <c r="G496">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -16065,7 +16065,7 @@
         <v>93</v>
       </c>
       <c r="G497">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -16088,7 +16088,7 @@
         <v>208</v>
       </c>
       <c r="G498">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -16111,7 +16111,7 @@
         <v>161</v>
       </c>
       <c r="G499">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -16134,7 +16134,7 @@
         <v>81</v>
       </c>
       <c r="G500">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -16180,7 +16180,7 @@
         <v>193</v>
       </c>
       <c r="G502">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="G503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -16226,7 +16226,7 @@
         <v>11</v>
       </c>
       <c r="G504">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -16318,7 +16318,7 @@
         <v>445</v>
       </c>
       <c r="G508">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -16410,7 +16410,7 @@
         <v>136</v>
       </c>
       <c r="G512">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -16456,7 +16456,7 @@
         <v>152</v>
       </c>
       <c r="G514">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -16502,7 +16502,7 @@
         <v>135</v>
       </c>
       <c r="G516">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -16571,7 +16571,7 @@
         <v>18</v>
       </c>
       <c r="G519">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -16591,10 +16591,10 @@
         <v>1421</v>
       </c>
       <c r="F520">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G520">
-        <v>161</v>
+        <v>227</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -16617,7 +16617,7 @@
         <v>188</v>
       </c>
       <c r="G521">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -16640,7 +16640,7 @@
         <v>33</v>
       </c>
       <c r="G522">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -16663,7 +16663,7 @@
         <v>126</v>
       </c>
       <c r="G523">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -16732,7 +16732,7 @@
         <v>2</v>
       </c>
       <c r="G526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -16755,7 +16755,7 @@
         <v>89</v>
       </c>
       <c r="G527">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -16778,7 +16778,7 @@
         <v>292</v>
       </c>
       <c r="G528">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -16801,7 +16801,7 @@
         <v>150</v>
       </c>
       <c r="G529">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -16824,7 +16824,7 @@
         <v>309</v>
       </c>
       <c r="G530">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -16939,7 +16939,7 @@
         <v>74</v>
       </c>
       <c r="G535">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -16985,7 +16985,7 @@
         <v>63</v>
       </c>
       <c r="G537">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -17031,7 +17031,7 @@
         <v>42</v>
       </c>
       <c r="G539">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -17054,7 +17054,7 @@
         <v>2</v>
       </c>
       <c r="G540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -17077,7 +17077,7 @@
         <v>27</v>
       </c>
       <c r="G541">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -17100,7 +17100,7 @@
         <v>310</v>
       </c>
       <c r="G542">
-        <v>212</v>
+        <v>299</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -17123,7 +17123,7 @@
         <v>400</v>
       </c>
       <c r="G543">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -17215,7 +17215,7 @@
         <v>380</v>
       </c>
       <c r="G547">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -17238,7 +17238,7 @@
         <v>348</v>
       </c>
       <c r="G548">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -17261,7 +17261,7 @@
         <v>355</v>
       </c>
       <c r="G549">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -17284,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="G550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -17330,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="G552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -17422,7 +17422,7 @@
         <v>247</v>
       </c>
       <c r="G556">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -17445,7 +17445,7 @@
         <v>10</v>
       </c>
       <c r="G557">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -17468,7 +17468,7 @@
         <v>1</v>
       </c>
       <c r="G558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -17491,7 +17491,7 @@
         <v>32</v>
       </c>
       <c r="G559">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -17514,7 +17514,7 @@
         <v>20</v>
       </c>
       <c r="G560">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -17583,7 +17583,7 @@
         <v>11</v>
       </c>
       <c r="G563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -17675,7 +17675,7 @@
         <v>18</v>
       </c>
       <c r="G567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -17695,10 +17695,10 @@
         <v>1422</v>
       </c>
       <c r="F568">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -17744,7 +17744,7 @@
         <v>130</v>
       </c>
       <c r="G570">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -17767,7 +17767,7 @@
         <v>88</v>
       </c>
       <c r="G571">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -17813,7 +17813,7 @@
         <v>104</v>
       </c>
       <c r="G573">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -17836,7 +17836,7 @@
         <v>64</v>
       </c>
       <c r="G574">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -17882,7 +17882,7 @@
         <v>17</v>
       </c>
       <c r="G576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -17905,7 +17905,7 @@
         <v>60</v>
       </c>
       <c r="G577">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -17951,7 +17951,7 @@
         <v>7</v>
       </c>
       <c r="G579">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -17974,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="G580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -18020,7 +18020,7 @@
         <v>1</v>
       </c>
       <c r="G582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -18043,7 +18043,7 @@
         <v>1</v>
       </c>
       <c r="G583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -18066,7 +18066,7 @@
         <v>1</v>
       </c>
       <c r="G584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -18112,7 +18112,7 @@
         <v>9</v>
       </c>
       <c r="G586">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="G588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -18181,7 +18181,7 @@
         <v>2</v>
       </c>
       <c r="G589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -18204,7 +18204,7 @@
         <v>4</v>
       </c>
       <c r="G590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -18250,7 +18250,7 @@
         <v>1</v>
       </c>
       <c r="G592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -18296,7 +18296,7 @@
         <v>2</v>
       </c>
       <c r="G594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -18319,7 +18319,7 @@
         <v>1</v>
       </c>
       <c r="G595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="G596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -18365,7 +18365,7 @@
         <v>4</v>
       </c>
       <c r="G597">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -18480,7 +18480,7 @@
         <v>71</v>
       </c>
       <c r="G602">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -18503,7 +18503,7 @@
         <v>5</v>
       </c>
       <c r="G603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -18572,7 +18572,7 @@
         <v>38</v>
       </c>
       <c r="G606">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -18641,7 +18641,7 @@
         <v>1</v>
       </c>
       <c r="G609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -18664,7 +18664,7 @@
         <v>10</v>
       </c>
       <c r="G610">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -18687,7 +18687,7 @@
         <v>1</v>
       </c>
       <c r="G611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -18733,7 +18733,7 @@
         <v>3</v>
       </c>
       <c r="G613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -18779,7 +18779,7 @@
         <v>2</v>
       </c>
       <c r="G615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -18825,7 +18825,7 @@
         <v>242</v>
       </c>
       <c r="G617">
-        <v>1</v>
+        <v>225</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -18848,7 +18848,7 @@
         <v>1</v>
       </c>
       <c r="G618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -18894,7 +18894,7 @@
         <v>21</v>
       </c>
       <c r="G620">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -18914,10 +18914,10 @@
         <v>1424</v>
       </c>
       <c r="F621">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G621">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -18940,7 +18940,7 @@
         <v>4</v>
       </c>
       <c r="G622">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -18986,7 +18986,7 @@
         <v>2</v>
       </c>
       <c r="G624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -19101,7 +19101,7 @@
         <v>5</v>
       </c>
       <c r="G629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -19124,7 +19124,7 @@
         <v>3</v>
       </c>
       <c r="G630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -19147,7 +19147,7 @@
         <v>2</v>
       </c>
       <c r="G631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -19193,7 +19193,7 @@
         <v>6</v>
       </c>
       <c r="G633">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -19216,7 +19216,7 @@
         <v>3</v>
       </c>
       <c r="G634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -19239,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="G635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -19262,7 +19262,7 @@
         <v>2</v>
       </c>
       <c r="G636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -19285,7 +19285,7 @@
         <v>50</v>
       </c>
       <c r="G637">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -19308,7 +19308,7 @@
         <v>154</v>
       </c>
       <c r="G638">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -19331,7 +19331,7 @@
         <v>482</v>
       </c>
       <c r="G639">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -19354,7 +19354,7 @@
         <v>291</v>
       </c>
       <c r="G640">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -19400,7 +19400,7 @@
         <v>1387</v>
       </c>
       <c r="G642">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -19423,7 +19423,7 @@
         <v>383</v>
       </c>
       <c r="G643">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -19559,7 +19559,7 @@
         <v>1321</v>
       </c>
       <c r="G651">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -19576,7 +19576,7 @@
         <v>112</v>
       </c>
       <c r="G652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -19593,7 +19593,7 @@
         <v>191</v>
       </c>
       <c r="G653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -20018,7 +20018,7 @@
         <v>3</v>
       </c>
       <c r="G678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -20035,7 +20035,7 @@
         <v>17</v>
       </c>
       <c r="G679">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -20443,7 +20443,7 @@
         <v>110</v>
       </c>
       <c r="G703">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -20460,7 +20460,7 @@
         <v>115</v>
       </c>
       <c r="G704">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -20579,7 +20579,7 @@
         <v>85</v>
       </c>
       <c r="G711">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -20613,7 +20613,7 @@
         <v>2</v>
       </c>
       <c r="G713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:7">
@@ -20817,7 +20817,7 @@
         <v>5651</v>
       </c>
       <c r="G725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -21174,7 +21174,7 @@
         <v>194</v>
       </c>
       <c r="G746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:7">
@@ -21378,7 +21378,7 @@
         <v>243</v>
       </c>
       <c r="G758">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="759" spans="1:7">
@@ -21528,10 +21528,10 @@
         <v>1424</v>
       </c>
       <c r="F767">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G767">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="768" spans="1:7">
@@ -21616,7 +21616,7 @@
         <v>330</v>
       </c>
       <c r="G772">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="773" spans="1:7">
@@ -22160,7 +22160,7 @@
         <v>837</v>
       </c>
       <c r="G804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:7">
@@ -22177,7 +22177,7 @@
         <v>838</v>
       </c>
       <c r="G805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:7">
@@ -22993,7 +22993,7 @@
         <v>210</v>
       </c>
       <c r="G853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:7">
@@ -23027,7 +23027,7 @@
         <v>354</v>
       </c>
       <c r="G855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:7">
@@ -23775,7 +23775,7 @@
         <v>177</v>
       </c>
       <c r="G899">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="900" spans="1:7">
@@ -23792,7 +23792,7 @@
         <v>106</v>
       </c>
       <c r="G900">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="901" spans="1:7">
@@ -23809,7 +23809,7 @@
         <v>253</v>
       </c>
       <c r="G901">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="902" spans="1:7">
@@ -24319,7 +24319,7 @@
         <v>1</v>
       </c>
       <c r="G931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -24336,7 +24336,7 @@
         <v>1</v>
       </c>
       <c r="G932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:7">
@@ -24574,7 +24574,7 @@
         <v>108</v>
       </c>
       <c r="G946">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -24812,7 +24812,7 @@
         <v>4</v>
       </c>
       <c r="G960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:7">
@@ -25577,7 +25577,7 @@
         <v>41</v>
       </c>
       <c r="G1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -25662,7 +25662,7 @@
         <v>98</v>
       </c>
       <c r="G1010">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -25679,7 +25679,7 @@
         <v>77</v>
       </c>
       <c r="G1011">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -25798,7 +25798,7 @@
         <v>308</v>
       </c>
       <c r="G1018">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1019" spans="1:7">
@@ -26002,7 +26002,7 @@
         <v>59</v>
       </c>
       <c r="G1030">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1031" spans="1:7">
@@ -26019,7 +26019,7 @@
         <v>48</v>
       </c>
       <c r="G1031">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1032" spans="1:7">
@@ -26036,7 +26036,7 @@
         <v>45</v>
       </c>
       <c r="G1032">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -26050,10 +26050,10 @@
         <v>1424</v>
       </c>
       <c r="F1033">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1033">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -26628,10 +26628,10 @@
         <v>1424</v>
       </c>
       <c r="F1067">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G1067">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -26801,7 +26801,7 @@
         <v>200</v>
       </c>
       <c r="G1077">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -26818,7 +26818,7 @@
         <v>449</v>
       </c>
       <c r="G1078">
-        <v>183</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -26835,7 +26835,7 @@
         <v>290</v>
       </c>
       <c r="G1079">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -27481,7 +27481,7 @@
         <v>21</v>
       </c>
       <c r="G1117">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
@@ -27872,7 +27872,7 @@
         <v>223</v>
       </c>
       <c r="G1140">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -27889,7 +27889,7 @@
         <v>136</v>
       </c>
       <c r="G1141">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1142" spans="1:7">
@@ -28229,7 +28229,7 @@
         <v>7</v>
       </c>
       <c r="G1161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:7">
@@ -28246,7 +28246,7 @@
         <v>6</v>
       </c>
       <c r="G1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:7">
@@ -28263,7 +28263,7 @@
         <v>4</v>
       </c>
       <c r="G1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:7">
@@ -28722,7 +28722,7 @@
         <v>12</v>
       </c>
       <c r="G1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:7">
@@ -29300,7 +29300,7 @@
         <v>16</v>
       </c>
       <c r="G1224">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1225" spans="1:7">
@@ -30235,7 +30235,7 @@
         <v>3</v>
       </c>
       <c r="G1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:7">
@@ -30269,7 +30269,7 @@
         <v>48</v>
       </c>
       <c r="G1281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282" spans="1:7">
@@ -30898,7 +30898,7 @@
         <v>358</v>
       </c>
       <c r="G1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:7">
@@ -31000,7 +31000,7 @@
         <v>168</v>
       </c>
       <c r="G1324">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1325" spans="1:7">
@@ -31527,7 +31527,7 @@
         <v>99</v>
       </c>
       <c r="G1355">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1356" spans="1:7">
@@ -31544,7 +31544,7 @@
         <v>43</v>
       </c>
       <c r="G1356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:7">
@@ -31561,7 +31561,7 @@
         <v>5913</v>
       </c>
       <c r="G1357">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1358" spans="1:7">
@@ -31612,7 +31612,7 @@
         <v>122</v>
       </c>
       <c r="G1360">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1361" spans="1:7">
@@ -31680,7 +31680,7 @@
         <v>107</v>
       </c>
       <c r="G1364">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1365" spans="1:7">
@@ -32054,7 +32054,7 @@
         <v>54</v>
       </c>
       <c r="G1386">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1387" spans="1:7">
@@ -32153,10 +32153,10 @@
         <v>1424</v>
       </c>
       <c r="F1392">
-        <v>4065</v>
+        <v>4110</v>
       </c>
       <c r="G1392">
-        <v>74</v>
+        <v>946</v>
       </c>
     </row>
     <row r="1393" spans="1:7">
@@ -32561,10 +32561,10 @@
         <v>1424</v>
       </c>
       <c r="F1416">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1416">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1417" spans="1:7">
@@ -33125,7 +33125,7 @@
         <v>160</v>
       </c>
       <c r="G1449">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1450" spans="1:7">
@@ -33550,7 +33550,7 @@
         <v>147</v>
       </c>
       <c r="G1474">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1475" spans="1:7">
@@ -33703,7 +33703,7 @@
         <v>6</v>
       </c>
       <c r="G1483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1484" spans="1:7">
@@ -34060,7 +34060,7 @@
         <v>357</v>
       </c>
       <c r="G1504">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1505" spans="1:7">
@@ -34587,7 +34587,7 @@
         <v>112</v>
       </c>
       <c r="G1535">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1536" spans="1:7">
@@ -34978,7 +34978,7 @@
         <v>1402</v>
       </c>
       <c r="G1558">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1559" spans="1:7">
@@ -35318,7 +35318,7 @@
         <v>8</v>
       </c>
       <c r="G1578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1579" spans="1:7">
@@ -35352,7 +35352,7 @@
         <v>2055</v>
       </c>
       <c r="G1580">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1581" spans="1:7">
@@ -35369,7 +35369,7 @@
         <v>95</v>
       </c>
       <c r="G1581">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1582" spans="1:7">
@@ -35386,7 +35386,7 @@
         <v>198</v>
       </c>
       <c r="G1582">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1583" spans="1:7">
@@ -35400,10 +35400,10 @@
         <v>1423</v>
       </c>
       <c r="F1583">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G1583">
-        <v>377</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1584" spans="1:7">
@@ -35417,10 +35417,10 @@
         <v>1424</v>
       </c>
       <c r="F1584">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1584">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1585" spans="1:7">
@@ -35573,7 +35573,7 @@
         <v>8</v>
       </c>
       <c r="G1593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1594" spans="1:7">
@@ -35587,10 +35587,10 @@
         <v>1421</v>
       </c>
       <c r="F1594">
-        <v>16264</v>
+        <v>16271</v>
       </c>
       <c r="G1594">
-        <v>0</v>
+        <v>10997</v>
       </c>
     </row>
     <row r="1595" spans="1:7">
@@ -35641,7 +35641,7 @@
         <v>3080</v>
       </c>
       <c r="G1597">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1598" spans="1:7">
@@ -35655,10 +35655,10 @@
         <v>1424</v>
       </c>
       <c r="F1598">
-        <v>15924</v>
+        <v>15959</v>
       </c>
       <c r="G1598">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1599" spans="1:7">
@@ -35675,7 +35675,7 @@
         <v>2</v>
       </c>
       <c r="G1599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1600" spans="1:7">
@@ -36117,7 +36117,7 @@
         <v>19</v>
       </c>
       <c r="G1625">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1626" spans="1:7">
@@ -36355,7 +36355,7 @@
         <v>729</v>
       </c>
       <c r="G1639">
-        <v>668</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1640" spans="1:7">
@@ -36369,10 +36369,10 @@
         <v>1423</v>
       </c>
       <c r="F1640">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="G1640">
-        <v>1421</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1641" spans="1:7">
@@ -36389,7 +36389,7 @@
         <v>1921</v>
       </c>
       <c r="G1641">
-        <v>1281</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1642" spans="1:7">
@@ -36661,7 +36661,7 @@
         <v>1432</v>
       </c>
       <c r="G1657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1658" spans="1:7">
@@ -37290,7 +37290,7 @@
         <v>122</v>
       </c>
       <c r="G1694">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1695" spans="1:7">
@@ -37443,7 +37443,7 @@
         <v>10</v>
       </c>
       <c r="G1703">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1704" spans="1:7">
@@ -37613,7 +37613,7 @@
         <v>14</v>
       </c>
       <c r="G1713">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1714" spans="1:7">
@@ -37630,7 +37630,7 @@
         <v>230</v>
       </c>
       <c r="G1714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1715" spans="1:7">
@@ -38395,7 +38395,7 @@
         <v>1427</v>
       </c>
       <c r="G1759">
-        <v>200</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1760" spans="1:7">
@@ -39007,7 +39007,7 @@
         <v>159</v>
       </c>
       <c r="G1795">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1796" spans="1:7">
@@ -39109,7 +39109,7 @@
         <v>1</v>
       </c>
       <c r="G1801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1802" spans="1:7">
@@ -39653,7 +39653,7 @@
         <v>213</v>
       </c>
       <c r="G1833">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1834" spans="1:7">
@@ -39670,7 +39670,7 @@
         <v>24</v>
       </c>
       <c r="G1834">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1835" spans="1:7">
@@ -39687,7 +39687,7 @@
         <v>213</v>
       </c>
       <c r="G1835">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1836" spans="1:7">
@@ -39789,7 +39789,7 @@
         <v>98</v>
       </c>
       <c r="G1841">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1842" spans="1:7">
@@ -39806,7 +39806,7 @@
         <v>40</v>
       </c>
       <c r="G1842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1843" spans="1:7">
@@ -39823,7 +39823,7 @@
         <v>49</v>
       </c>
       <c r="G1843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1844" spans="1:7">
@@ -39993,7 +39993,7 @@
         <v>2</v>
       </c>
       <c r="G1853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1854" spans="1:7">
@@ -40010,7 +40010,7 @@
         <v>3</v>
       </c>
       <c r="G1854">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1855" spans="1:7">
